--- a/backend/jsmc-opa RSVP 8.19.2025.xlsx
+++ b/backend/jsmc-opa RSVP 8.19.2025.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas.shah/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tejas.shah/Downloads/jsmcrsvp/backend/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DA6ED8-531C-C54F-802A-B51A42E888A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B693DD13-4D7E-4E42-B76A-35888C245812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="840" windowWidth="27940" windowHeight="17360" xr2:uid="{6CAB1AF8-7C11-4A54-B0DF-59143F9122B9}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9274" uniqueCount="8910">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9272" uniqueCount="8908">
   <si>
     <t>Member ID</t>
   </si>
@@ -26588,13 +26588,7 @@
     <t>1(914)  Midwest Club, Oakbrook, IL - 60523</t>
   </si>
   <si>
-    <t xml:space="preserve">1(914) </t>
-  </si>
-  <si>
     <t>1721 Buttonwood Circle #2(914) , Schaumburg, IL - 60173</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2(914) </t>
   </si>
   <si>
     <t>(734) 773-5551</t>
@@ -27629,8 +27623,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DCCE039-EF47-4D36-AD4E-9CAA6D6900F2}">
   <dimension ref="A1:E2507"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A2488" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="A2430" sqref="A2430"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -29014,7 +29008,7 @@
         <v>723</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>8889</v>
+        <v>8887</v>
       </c>
       <c r="E94" t="s">
         <v>724</v>
@@ -29770,7 +29764,7 @@
         <v>885</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>8855</v>
+        <v>8853</v>
       </c>
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.2">
@@ -30546,7 +30540,7 @@
         <v>1052</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>8856</v>
+        <v>8854</v>
       </c>
       <c r="E194" t="s">
         <v>1053</v>
@@ -30726,7 +30720,7 @@
         <v>1091</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>8909</v>
+        <v>8907</v>
       </c>
       <c r="E206" t="s">
         <v>1092</v>
@@ -30760,7 +30754,7 @@
         <v>1098</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>8908</v>
+        <v>8906</v>
       </c>
       <c r="E208" t="s">
         <v>1099</v>
@@ -30966,7 +30960,7 @@
         <v>1141</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>8907</v>
+        <v>8905</v>
       </c>
       <c r="E221" t="s">
         <v>1142</v>
@@ -31443,7 +31437,7 @@
         <v>1245</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>8906</v>
+        <v>8904</v>
       </c>
       <c r="E251" t="s">
         <v>1246</v>
@@ -34059,7 +34053,7 @@
         <v>1803</v>
       </c>
       <c r="D422" s="1" t="s">
-        <v>8857</v>
+        <v>8855</v>
       </c>
       <c r="E422" t="s">
         <v>1804</v>
@@ -35960,7 +35954,7 @@
         <v>2196</v>
       </c>
       <c r="D543" s="1" t="s">
-        <v>8905</v>
+        <v>8903</v>
       </c>
       <c r="E543" t="s">
         <v>2197</v>
@@ -38779,7 +38773,7 @@
         <v>2797</v>
       </c>
       <c r="D721" s="1" t="s">
-        <v>8870</v>
+        <v>8868</v>
       </c>
       <c r="E721" t="s">
         <v>2798</v>
@@ -39064,7 +39058,7 @@
         <v>2859</v>
       </c>
       <c r="D739" s="1" t="s">
-        <v>8858</v>
+        <v>8856</v>
       </c>
       <c r="E739" t="s">
         <v>2860</v>
@@ -41587,7 +41581,7 @@
         <v>3746</v>
       </c>
       <c r="D901" s="1" t="s">
-        <v>8859</v>
+        <v>8857</v>
       </c>
       <c r="E901" t="s">
         <v>3747</v>
@@ -42636,7 +42630,7 @@
         <v>3963</v>
       </c>
       <c r="D968" s="1" t="s">
-        <v>8860</v>
+        <v>8858</v>
       </c>
       <c r="E968" t="s">
         <v>3964</v>
@@ -44025,7 +44019,7 @@
         <v>4003</v>
       </c>
       <c r="D1058" s="1" t="s">
-        <v>8890</v>
+        <v>8888</v>
       </c>
       <c r="E1058" t="s">
         <v>4259</v>
@@ -44169,7 +44163,7 @@
         <v>4289</v>
       </c>
       <c r="D1067" s="1" t="s">
-        <v>8871</v>
+        <v>8869</v>
       </c>
       <c r="E1067" t="s">
         <v>4290</v>
@@ -44203,7 +44197,7 @@
         <v>4296</v>
       </c>
       <c r="D1069" s="1" t="s">
-        <v>8862</v>
+        <v>8860</v>
       </c>
       <c r="E1069" t="s">
         <v>4297</v>
@@ -44299,7 +44293,7 @@
         <v>4315</v>
       </c>
       <c r="D1075" s="1" t="s">
-        <v>8861</v>
+        <v>8859</v>
       </c>
       <c r="E1075" t="s">
         <v>4316</v>
@@ -44477,7 +44471,7 @@
         <v>4352</v>
       </c>
       <c r="D1086" s="1" t="s">
-        <v>8863</v>
+        <v>8861</v>
       </c>
       <c r="E1086" t="s">
         <v>4353</v>
@@ -45096,7 +45090,7 @@
         <v>4486</v>
       </c>
       <c r="D1124" s="1" t="s">
-        <v>8864</v>
+        <v>8862</v>
       </c>
       <c r="E1124" t="s">
         <v>4487</v>
@@ -45990,7 +45984,7 @@
         <v>4684</v>
       </c>
       <c r="D1178" s="1" t="s">
-        <v>8866</v>
+        <v>8864</v>
       </c>
       <c r="E1178" t="s">
         <v>4685</v>
@@ -46024,7 +46018,7 @@
         <v>4690</v>
       </c>
       <c r="D1180" s="1" t="s">
-        <v>8865</v>
+        <v>8863</v>
       </c>
       <c r="E1180" t="s">
         <v>4691</v>
@@ -46177,7 +46171,7 @@
         <v>4723</v>
       </c>
       <c r="D1189" s="1" t="s">
-        <v>8867</v>
+        <v>8865</v>
       </c>
       <c r="E1189" t="s">
         <v>4724</v>
@@ -46395,7 +46389,7 @@
         <v>4772</v>
       </c>
       <c r="D1202" s="1" t="s">
-        <v>8872</v>
+        <v>8870</v>
       </c>
       <c r="E1202" t="s">
         <v>4773</v>
@@ -47555,7 +47549,7 @@
         <v>57</v>
       </c>
       <c r="D1272" s="1" t="s">
-        <v>8888</v>
+        <v>8886</v>
       </c>
       <c r="E1272" t="s">
         <v>58</v>
@@ -48656,7 +48650,7 @@
         <v>5247</v>
       </c>
       <c r="D1338" s="1" t="s">
-        <v>8893</v>
+        <v>8891</v>
       </c>
       <c r="E1338" t="s">
         <v>5248</v>
@@ -48673,7 +48667,7 @@
         <v>5250</v>
       </c>
       <c r="D1339" s="1" t="s">
-        <v>8894</v>
+        <v>8892</v>
       </c>
       <c r="E1339" t="s">
         <v>5251</v>
@@ -48724,7 +48718,7 @@
         <v>5260</v>
       </c>
       <c r="D1342" s="1" t="s">
-        <v>8891</v>
+        <v>8889</v>
       </c>
       <c r="E1342" t="s">
         <v>5261</v>
@@ -48860,7 +48854,7 @@
         <v>3348</v>
       </c>
       <c r="D1350" s="1" t="s">
-        <v>8892</v>
+        <v>8890</v>
       </c>
       <c r="E1350" t="s">
         <v>3349</v>
@@ -51034,7 +51028,7 @@
         <v>3599</v>
       </c>
       <c r="D1480" s="1" t="s">
-        <v>8878</v>
+        <v>8876</v>
       </c>
       <c r="E1480" t="s">
         <v>3601</v>
@@ -53427,8 +53421,8 @@
       </c>
     </row>
     <row r="1624" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1624" t="s">
-        <v>8851</v>
+      <c r="A1624">
+        <v>1914</v>
       </c>
       <c r="B1624" t="s">
         <v>382</v>
@@ -53485,7 +53479,7 @@
         <v>394</v>
       </c>
       <c r="D1627" s="1" t="s">
-        <v>8879</v>
+        <v>8877</v>
       </c>
       <c r="E1627" t="s">
         <v>395</v>
@@ -57208,7 +57202,7 @@
         <v>6366</v>
       </c>
       <c r="D1849" s="1" t="s">
-        <v>8904</v>
+        <v>8902</v>
       </c>
       <c r="E1849" t="s">
         <v>6367</v>
@@ -57630,7 +57624,7 @@
         <v>5989</v>
       </c>
       <c r="D1874" s="1" t="s">
-        <v>8903</v>
+        <v>8901</v>
       </c>
       <c r="E1874" t="s">
         <v>6452</v>
@@ -57664,7 +57658,7 @@
         <v>6458</v>
       </c>
       <c r="D1876" s="1" t="s">
-        <v>8902</v>
+        <v>8900</v>
       </c>
       <c r="E1876" t="s">
         <v>6459</v>
@@ -57964,7 +57958,7 @@
         <v>6335</v>
       </c>
       <c r="D1894" s="1" t="s">
-        <v>8880</v>
+        <v>8878</v>
       </c>
       <c r="E1894" t="s">
         <v>6336</v>
@@ -58338,7 +58332,7 @@
         <v>6605</v>
       </c>
       <c r="D1916" s="1" t="s">
-        <v>8901</v>
+        <v>8899</v>
       </c>
       <c r="E1916" t="s">
         <v>6606</v>
@@ -58604,7 +58598,7 @@
         <v>6660</v>
       </c>
       <c r="D1932" s="1" t="s">
-        <v>8900</v>
+        <v>8898</v>
       </c>
       <c r="E1932" t="s">
         <v>6661</v>
@@ -58842,7 +58836,7 @@
         <v>6711</v>
       </c>
       <c r="D1946" s="1" t="s">
-        <v>8899</v>
+        <v>8897</v>
       </c>
       <c r="E1946" t="s">
         <v>6712</v>
@@ -58927,7 +58921,7 @@
         <v>6732</v>
       </c>
       <c r="D1951" s="1" t="s">
-        <v>8881</v>
+        <v>8879</v>
       </c>
       <c r="E1951" t="s">
         <v>6733</v>
@@ -60006,7 +60000,7 @@
         <v>6969</v>
       </c>
       <c r="D2015" s="1" t="s">
-        <v>8882</v>
+        <v>8880</v>
       </c>
       <c r="E2015" t="s">
         <v>6970</v>
@@ -60350,7 +60344,7 @@
         <v>7039</v>
       </c>
       <c r="D2037" s="1" t="s">
-        <v>8883</v>
+        <v>8881</v>
       </c>
       <c r="E2037" t="s">
         <v>7040</v>
@@ -61123,7 +61117,7 @@
         <v>7168</v>
       </c>
       <c r="D2086" s="1" t="s">
-        <v>8884</v>
+        <v>8882</v>
       </c>
       <c r="E2086" t="s">
         <v>7169</v>
@@ -61276,7 +61270,7 @@
         <v>7195</v>
       </c>
       <c r="D2095" s="1" t="s">
-        <v>8885</v>
+        <v>8883</v>
       </c>
     </row>
     <row r="2096" spans="1:5" x14ac:dyDescent="0.2">
@@ -61307,7 +61301,7 @@
         <v>7200</v>
       </c>
       <c r="D2097" s="1" t="s">
-        <v>8887</v>
+        <v>8885</v>
       </c>
       <c r="E2097" t="s">
         <v>7201</v>
@@ -61635,7 +61629,7 @@
         <v>7280</v>
       </c>
       <c r="D2117" s="1" t="s">
-        <v>8873</v>
+        <v>8871</v>
       </c>
       <c r="E2117" t="s">
         <v>7281</v>
@@ -61861,7 +61855,7 @@
         <v>7313</v>
       </c>
       <c r="D2131" s="1" t="s">
-        <v>8854</v>
+        <v>8852</v>
       </c>
       <c r="E2131" t="s">
         <v>7314</v>
@@ -61960,7 +61954,7 @@
         <v>7336</v>
       </c>
       <c r="D2137" s="1" t="s">
-        <v>8868</v>
+        <v>8866</v>
       </c>
       <c r="E2137" t="s">
         <v>7337</v>
@@ -63672,7 +63666,7 @@
         <v>7636</v>
       </c>
       <c r="D2242" s="1" t="s">
-        <v>8895</v>
+        <v>8893</v>
       </c>
       <c r="E2242" t="s">
         <v>7637</v>
@@ -63734,7 +63728,7 @@
         <v>7644</v>
       </c>
       <c r="D2246" s="1" t="s">
-        <v>8874</v>
+        <v>8872</v>
       </c>
       <c r="E2246" t="s">
         <v>7645</v>
@@ -63751,7 +63745,7 @@
         <v>7649</v>
       </c>
       <c r="D2247" s="1" t="s">
-        <v>8875</v>
+        <v>8873</v>
       </c>
       <c r="E2247" t="s">
         <v>7650</v>
@@ -64429,7 +64423,7 @@
         <v>6990</v>
       </c>
       <c r="D2289" s="1" t="s">
-        <v>8876</v>
+        <v>8874</v>
       </c>
       <c r="E2289" t="s">
         <v>6991</v>
@@ -64446,7 +64440,7 @@
         <v>7779</v>
       </c>
       <c r="D2290" s="1" t="s">
-        <v>8877</v>
+        <v>8875</v>
       </c>
       <c r="E2290" t="s">
         <v>7780</v>
@@ -64525,7 +64519,7 @@
         <v>7789</v>
       </c>
       <c r="C2295" t="s">
-        <v>8852</v>
+        <v>8851</v>
       </c>
       <c r="D2295" s="1" t="s">
         <v>8831</v>
@@ -65054,7 +65048,7 @@
         <v>7879</v>
       </c>
       <c r="D2327" s="1" t="s">
-        <v>8898</v>
+        <v>8896</v>
       </c>
     </row>
     <row r="2328" spans="1:5" x14ac:dyDescent="0.2">
@@ -65456,7 +65450,7 @@
         <v>7956</v>
       </c>
       <c r="D2352" s="1" t="s">
-        <v>8886</v>
+        <v>8884</v>
       </c>
       <c r="E2352" t="s">
         <v>7957</v>
@@ -65968,7 +65962,7 @@
         <v>8047</v>
       </c>
       <c r="D2383" s="1" t="s">
-        <v>8896</v>
+        <v>8894</v>
       </c>
       <c r="E2383" t="s">
         <v>8048</v>
@@ -66296,7 +66290,7 @@
         <v>8078</v>
       </c>
       <c r="D2403" s="1" t="s">
-        <v>8869</v>
+        <v>8867</v>
       </c>
       <c r="E2403" t="s">
         <v>8079</v>
@@ -66722,8 +66716,8 @@
       </c>
     </row>
     <row r="2429" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2429" t="s">
-        <v>8853</v>
+      <c r="A2429">
+        <v>2914</v>
       </c>
       <c r="B2429" t="s">
         <v>8141</v>
@@ -67379,7 +67373,7 @@
         <v>8072</v>
       </c>
       <c r="D2469" s="1" t="s">
-        <v>8897</v>
+        <v>8895</v>
       </c>
       <c r="E2469" t="s">
         <v>8073</v>
